--- a/разряд.xlsx
+++ b/разряд.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\МГУ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\МГУ\msu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Поверхностный скользящий разряд</t>
   </si>
@@ -65,30 +65,9 @@
     <t>мм</t>
   </si>
   <si>
-    <t>Параметры газа (плотность)</t>
-  </si>
-  <si>
-    <t>кг/м^3</t>
-  </si>
-  <si>
-    <t>≈10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кВ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">кА </t>
-  </si>
-  <si>
     <t>нс</t>
   </si>
   <si>
-    <t>0,003 - 0,420</t>
-  </si>
-  <si>
-    <t>200 -1000</t>
-  </si>
-  <si>
     <t>Тд</t>
   </si>
   <si>
@@ -134,10 +113,25 @@
     <t>3 * 10^(-12)</t>
   </si>
   <si>
-    <t>2 * 10^(-14)</t>
-  </si>
-  <si>
     <t>Максвеллизация электронов время</t>
+  </si>
+  <si>
+    <t>Параметры газа (давление)</t>
+  </si>
+  <si>
+    <t>Торр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В </t>
+  </si>
+  <si>
+    <t xml:space="preserve">А </t>
+  </si>
+  <si>
+    <t>2,1*10^(9)</t>
+  </si>
+  <si>
+    <t>3,9 * 10^(-14)</t>
   </si>
 </sst>
 </file>
@@ -253,6 +247,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,24 +272,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +557,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -574,25 +568,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -603,146 +597,146 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="C5" s="2">
+        <v>25000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>300</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
-        <v>28</v>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8333</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>260</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3300</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="10" t="s">
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/разряд.xlsx
+++ b/разряд.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Поверхностный скользящий разряд</t>
   </si>
@@ -71,18 +71,12 @@
     <t>Тд</t>
   </si>
   <si>
-    <t>10^(-4)</t>
-  </si>
-  <si>
     <t>см</t>
   </si>
   <si>
     <t>ед</t>
   </si>
   <si>
-    <t>5,6 * 10^(11)</t>
-  </si>
-  <si>
     <t>Гц</t>
   </si>
   <si>
@@ -98,24 +92,9 @@
     <t>1/c</t>
   </si>
   <si>
-    <t>Выравнивание э и и Т за время</t>
-  </si>
-  <si>
-    <t>4,7 * 10^(-10)</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>Максвеллизация ионов время</t>
-  </si>
-  <si>
-    <t>3 * 10^(-12)</t>
-  </si>
-  <si>
-    <t>Максвеллизация электронов время</t>
-  </si>
-  <si>
     <t>Параметры газа (давление)</t>
   </si>
   <si>
@@ -128,10 +107,28 @@
     <t xml:space="preserve">А </t>
   </si>
   <si>
-    <t>2,1*10^(9)</t>
-  </si>
-  <si>
-    <t>3,9 * 10^(-14)</t>
+    <t>Выравнивание температуры электронов и ионов за время</t>
+  </si>
+  <si>
+    <t>Максвеллизация ионов за время</t>
+  </si>
+  <si>
+    <t>Максвеллизация электронов за время</t>
+  </si>
+  <si>
+    <t>5,6 * 10E11</t>
+  </si>
+  <si>
+    <t>2,1*10E9</t>
+  </si>
+  <si>
+    <t>4,7 * 10E-10</t>
+  </si>
+  <si>
+    <t>3 * 10E-12</t>
+  </si>
+  <si>
+    <t>3,9 * 10E-14</t>
   </si>
 </sst>
 </file>
@@ -239,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +269,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,12 +557,12 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.9296875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
@@ -598,13 +598,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
@@ -615,7 +615,7 @@
         <v>25000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
@@ -626,7 +626,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
@@ -644,22 +644,22 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
@@ -667,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>8333</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -697,35 +697,35 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
@@ -733,10 +733,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/разряд.xlsx
+++ b/разряд.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Поверхностный скользящий разряд</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>3,9 * 10E-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергия электронов </t>
+  </si>
+  <si>
+    <t>еВ</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +268,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -568,11 +577,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
@@ -631,98 +640,98 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>300</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1E-3</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1E-3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8333</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8333</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>260</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>22</v>
@@ -730,12 +739,23 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
